--- a/biology/Zoologie/Icosteus/Icosteus.xlsx
+++ b/biology/Zoologie/Icosteus/Icosteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Icosteus aenigmaticus est une espèce de poissons marins vivant jusqu'à 1 420 m de profondeur au nord de l'océan Pacifique.
 Bien que ce soit un perciforme, son squelette est surtout composé de cartilage. Il est le seul membre de la famille Icosteidae, et certains scientifiques lui accordent même l'ordre Icosteiformes.
